--- a/medicine/Psychotrope/Brasserie_Lefebvre/Brasserie_Lefebvre.xlsx
+++ b/medicine/Psychotrope/Brasserie_Lefebvre/Brasserie_Lefebvre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Lefebvre est une brasserie familiale située à Quenast en Belgique et fondée en 1876. Elle produit notamment la bière Barbãr.
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Lefebvre rachète la brasserie Saint-Joseph à Quenast et lance son activité en 1876, à proximité d'une carrière de porphyre. Les ouvriers y venaient s'y désaltérer après le travail[1],[2].
-Dans les années 80, la brasserie lance une bière blanche[1]. Depuis 1983, la brasserie Lefebvre brasse la bière de l'abbaye de Floreffe[3].
-En 2012, une quinzaine de bière étaient brassées par l'entreprise dont 80 % des volumes étaient exportés vers l'étranger[1].
-La brasserie s'agrandit en 2013 grâce à un investissement de 3 millions d'euros[4].
-Depuis sa création, la brasserie est toujours restée une entreprise familiale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Lefebvre rachète la brasserie Saint-Joseph à Quenast et lance son activité en 1876, à proximité d'une carrière de porphyre. Les ouvriers y venaient s'y désaltérer après le travail,.
+Dans les années 80, la brasserie lance une bière blanche. Depuis 1983, la brasserie Lefebvre brasse la bière de l'abbaye de Floreffe.
+En 2012, une quinzaine de bière étaient brassées par l'entreprise dont 80 % des volumes étaient exportés vers l'étranger.
+La brasserie s'agrandit en 2013 grâce à un investissement de 3 millions d'euros.
+Depuis sa création, la brasserie est toujours restée une entreprise familiale.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Barbãr
 Barbãr Blonde est une bière titrant 8 % de volume alcoolique et contenant 2,5 % de miel.
